--- a/ionic_liquids/Unprocessed Data.xlsx
+++ b/ionic_liquids/Unprocessed Data.xlsx
@@ -5,14 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/SarahsAdventure/Desktop/Direct_project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/SarahsAdventure/GitHub/ionic_liquids/ionic_liquids/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="480" windowWidth="24960" windowHeight="13520" tabRatio="500"/>
+    <workbookView xWindow="640" yWindow="480" windowWidth="24960" windowHeight="13520" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Unprocess" sheetId="1" r:id="rId1"/>
+    <sheet name="Unprocess_2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="143">
   <si>
     <t>1-butyl-3-methylimidazolium methanesulfonate</t>
   </si>
@@ -387,13 +388,82 @@
   </si>
   <si>
     <t>No electron conducitvity</t>
+  </si>
+  <si>
+    <t>Names</t>
+  </si>
+  <si>
+    <t>Temperature(K)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pressure </t>
+  </si>
+  <si>
+    <t>Electronic conductivity</t>
+  </si>
+  <si>
+    <t>101 (kpa)</t>
+  </si>
+  <si>
+    <t>0.81+/- 0.14 (S/m)</t>
+  </si>
+  <si>
+    <t>1.492 ± 0.016</t>
+  </si>
+  <si>
+    <t>0.514 ± 0.011</t>
+  </si>
+  <si>
+    <t>1.1345 ± 0.068</t>
+  </si>
+  <si>
+    <t>0.939 ± 0.038</t>
+  </si>
+  <si>
+    <t>353.1/358.1</t>
+  </si>
+  <si>
+    <t>101.325/101.325</t>
+  </si>
+  <si>
+    <t>0.447 ± 0.009/0.514 ± 0.011</t>
+  </si>
+  <si>
+    <t>10.48 ± 0.84</t>
+  </si>
+  <si>
+    <t>2.18 ± 0.44/2.41 ± 0.48</t>
+  </si>
+  <si>
+    <t>1.44 ± 0.014</t>
+  </si>
+  <si>
+    <t>2.41 ± 0.48</t>
+  </si>
+  <si>
+    <t>1.977 ± 0.021</t>
+  </si>
+  <si>
+    <t>5.2 ± 1/5.5 ± 1.1</t>
+  </si>
+  <si>
+    <t>2.2 ± 0.2</t>
+  </si>
+  <si>
+    <t>1.5 ± 0.12</t>
+  </si>
+  <si>
+    <t>6.2 ± 0.06</t>
+  </si>
+  <si>
+    <t>1.214 ± 0.012</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -439,6 +509,46 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF383838"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF212121"/>
+      <name val="Times New Roman"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -472,7 +582,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -482,6 +592,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -761,7 +883,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+    <sheetView topLeftCell="A48" workbookViewId="0">
       <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
@@ -1490,4 +1612,751 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="72.5" customWidth="1"/>
+    <col min="2" max="2" width="81.5" customWidth="1"/>
+    <col min="3" max="3" width="37.83203125" customWidth="1"/>
+    <col min="4" max="4" width="37.33203125" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="11"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="14">
+        <v>358.15</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="17">
+        <v>353.15</v>
+      </c>
+      <c r="D5" s="17">
+        <v>101.325</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="17">
+        <v>358.1</v>
+      </c>
+      <c r="D7" s="17">
+        <v>101.325</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+    </row>
+    <row r="10" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+    </row>
+    <row r="11" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+    </row>
+    <row r="12" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+    </row>
+    <row r="13" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+    </row>
+    <row r="14" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+    </row>
+    <row r="15" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="17">
+        <v>353.12</v>
+      </c>
+      <c r="D16" s="17">
+        <v>100</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+    </row>
+    <row r="18" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+    </row>
+    <row r="19" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="17">
+        <v>353.15</v>
+      </c>
+      <c r="D20" s="17">
+        <v>101</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="17">
+        <v>353.65</v>
+      </c>
+      <c r="D24" s="17">
+        <v>100</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="D26" s="17">
+        <v>101.325</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+    </row>
+    <row r="28" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+    </row>
+    <row r="29" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+    </row>
+    <row r="31" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+    </row>
+    <row r="32" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+    </row>
+    <row r="33" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="17">
+        <v>358.15</v>
+      </c>
+      <c r="D36" s="17">
+        <v>101.325</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+    </row>
+    <row r="38" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+    </row>
+    <row r="39" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+    </row>
+    <row r="40" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C41" s="17">
+        <v>353.15</v>
+      </c>
+      <c r="D41" s="17">
+        <v>101.325</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+    </row>
+    <row r="43" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+    </row>
+    <row r="44" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+    </row>
+    <row r="45" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="D46" s="17">
+        <v>101.325</v>
+      </c>
+      <c r="E46" s="17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C47" s="17">
+        <v>353.15</v>
+      </c>
+      <c r="D47" s="17">
+        <v>101.325</v>
+      </c>
+      <c r="E47" s="17" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+    </row>
+    <row r="49" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+    </row>
+    <row r="50" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+    </row>
+    <row r="51" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+    </row>
+    <row r="52" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C53" s="17">
+        <v>353</v>
+      </c>
+      <c r="D53" s="17">
+        <v>101.325</v>
+      </c>
+      <c r="E53" s="17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C55" s="17">
+        <v>358.15</v>
+      </c>
+      <c r="D55" s="17">
+        <v>101.325</v>
+      </c>
+      <c r="E55" s="17" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C56" s="17">
+        <v>353.15</v>
+      </c>
+      <c r="D56" s="17">
+        <v>101.325</v>
+      </c>
+      <c r="E56" s="17" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C59" s="17">
+        <v>358.15</v>
+      </c>
+      <c r="D59" s="17">
+        <v>101.325</v>
+      </c>
+      <c r="E59" s="17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>